--- a/results_svm_evaluation/svm_results_comparison_summary.xlsx
+++ b/results_svm_evaluation/svm_results_comparison_summary.xlsx
@@ -8,24 +8,37 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RnD_Repo\Research_Engineering\modeling_vce_dm\results_svm_evaluation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DF20590-B946-43A9-9BD6-10D5FBFB87BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{939A8C10-BC2C-41CF-9868-57EE3AF9720B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="sr_0.25" sheetId="1" r:id="rId1"/>
+    <sheet name="summary" sheetId="5" r:id="rId1"/>
+    <sheet name="sr_0.1" sheetId="2" r:id="rId2"/>
+    <sheet name="sr_0.25" sheetId="1" r:id="rId3"/>
+    <sheet name="sr_0.5" sheetId="3" r:id="rId4"/>
+    <sheet name="sr_0.75" sheetId="4" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="18">
   <si>
     <t>Average</t>
   </si>
@@ -62,6 +75,24 @@
   <si>
     <t>basic_fm_differ_rcm</t>
   </si>
+  <si>
+    <t>selection_rate</t>
+  </si>
+  <si>
+    <t>basic_fm_linear_rcm</t>
+  </si>
+  <si>
+    <t>basic_fm_linear_ratio_rcm</t>
+  </si>
+  <si>
+    <t>advanced_fm_differ_rcm</t>
+  </si>
+  <si>
+    <t>advanced_fm_linear_rcm</t>
+  </si>
+  <si>
+    <t>advanced_fm_linear_ratio_rcm</t>
+  </si>
 </sst>
 </file>
 
@@ -84,7 +115,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -92,18 +123,189 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -385,8 +587,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CB20B8D-A049-4201-8298-4F848C67899C}">
+  <dimension ref="A1:P46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:B1"/>
@@ -394,38 +596,1552 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="2"/>
+    <col min="1" max="16384" width="8.88671875" style="5"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="12">
+        <v>0.75</v>
+      </c>
+      <c r="D1" s="14"/>
+      <c r="E1" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="11"/>
+      <c r="G1" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="H1" s="14"/>
+      <c r="I1" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="11"/>
+      <c r="K1" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="L1" s="14"/>
+      <c r="M1" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="11"/>
+      <c r="O1" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="P1" s="14"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A2" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="9"/>
+      <c r="C2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="16"/>
+      <c r="E2" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="9"/>
+      <c r="G2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="16"/>
+      <c r="I2" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" s="9"/>
+      <c r="K2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="L2" s="16"/>
+      <c r="M2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="N2" s="9"/>
+      <c r="O2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="P2" s="16"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="9"/>
+      <c r="C3" s="8">
+        <v>83.73450174021113</v>
+      </c>
+      <c r="D3" s="16"/>
+      <c r="E3" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="9"/>
+      <c r="G3" s="8">
+        <v>81.430750554358895</v>
+      </c>
+      <c r="H3" s="16"/>
+      <c r="I3" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="9"/>
+      <c r="K3" s="8">
+        <v>75.763931060533977</v>
+      </c>
+      <c r="L3" s="16"/>
+      <c r="M3" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="N3" s="9"/>
+      <c r="O3" s="8">
+        <v>66.342505846359671</v>
+      </c>
+      <c r="P3" s="16"/>
+    </row>
+    <row r="4" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="8">
+        <v>82.29386644059781</v>
+      </c>
+      <c r="D4" s="16"/>
+      <c r="E4" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="9"/>
+      <c r="G4" s="8">
+        <v>81.436742532374851</v>
+      </c>
+      <c r="H4" s="16"/>
+      <c r="I4" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="9"/>
+      <c r="K4" s="8">
+        <v>80.80022606885295</v>
+      </c>
+      <c r="L4" s="16"/>
+      <c r="M4" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="N4" s="9"/>
+      <c r="O4" s="8">
+        <v>76.994893266089377</v>
+      </c>
+      <c r="P4" s="16"/>
+    </row>
+    <row r="5" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="12">
+        <v>81.550226789735774</v>
+      </c>
+      <c r="D5" s="14"/>
+      <c r="E5" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="12">
+        <v>80.95286868110162</v>
+      </c>
+      <c r="H5" s="14"/>
+      <c r="I5" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="K5" s="12">
+        <v>77.585192490131107</v>
+      </c>
+      <c r="L5" s="14"/>
+      <c r="M5" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="N5" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="O5" s="12">
+        <v>69.050695363570043</v>
+      </c>
+      <c r="P5" s="14"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A6" s="17"/>
+      <c r="B6" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="8">
+        <v>81.31674726136616</v>
+      </c>
+      <c r="D6" s="16"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="8">
+        <v>81.228932199528813</v>
+      </c>
+      <c r="H6" s="16"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="K6" s="8">
+        <v>78.521255950887692</v>
+      </c>
+      <c r="L6" s="16"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="O6" s="8">
+        <v>72.09827074628673</v>
+      </c>
+      <c r="P6" s="16"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A7" s="17"/>
+      <c r="B7" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="8">
+        <v>82.118242083985734</v>
+      </c>
+      <c r="D7" s="16"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" s="8">
+        <v>81.24952637998598</v>
+      </c>
+      <c r="H7" s="16"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="K7" s="8">
+        <v>77.585192490131107</v>
+      </c>
+      <c r="L7" s="16"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="O7" s="8">
+        <v>71.441448455436472</v>
+      </c>
+      <c r="P7" s="16"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A8" s="17"/>
+      <c r="B8" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="8">
+        <v>81.704910942136166</v>
+      </c>
+      <c r="D8" s="16"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="8">
+        <v>81.387878211172534</v>
+      </c>
+      <c r="H8" s="16"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="K8" s="8">
+        <v>74.789724247902953</v>
+      </c>
+      <c r="L8" s="16"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="O8" s="8">
+        <v>72.09827074628673</v>
+      </c>
+      <c r="P8" s="16"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A9" s="17"/>
+      <c r="B9" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="8">
+        <v>81.31674726136616</v>
+      </c>
+      <c r="D9" s="16"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" s="8">
+        <v>81.228932199528813</v>
+      </c>
+      <c r="H9" s="16"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="K9" s="8">
+        <v>78.521255950887692</v>
+      </c>
+      <c r="L9" s="16"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="O9" s="8">
+        <v>72.09827074628673</v>
+      </c>
+      <c r="P9" s="16"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A10" s="17"/>
+      <c r="B10" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="8">
+        <v>80.230538326456113</v>
+      </c>
+      <c r="D10" s="16"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" s="8">
+        <v>80.660605483899815</v>
+      </c>
+      <c r="H10" s="16"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="K10" s="8">
+        <v>74.789724247902953</v>
+      </c>
+      <c r="L10" s="16"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="O10" s="8">
+        <v>72.09827074628673</v>
+      </c>
+      <c r="P10" s="16"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A11" s="17"/>
+      <c r="B11" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="8">
+        <v>81.279497804190939</v>
+      </c>
+      <c r="D11" s="16">
+        <f>AVERAGE(C5:C11)</f>
+        <v>81.359558638462431</v>
+      </c>
+      <c r="E11" s="17"/>
+      <c r="F11" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" s="8">
+        <v>81.071831647909306</v>
+      </c>
+      <c r="H11" s="16">
+        <f>AVERAGE(G5:G11)</f>
+        <v>81.111510686160969</v>
+      </c>
+      <c r="I11" s="17"/>
+      <c r="J11" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="K11" s="8">
+        <v>77.000089389469906</v>
+      </c>
+      <c r="L11" s="16">
+        <f>AVERAGE(K5:K11)</f>
+        <v>76.970347823901903</v>
+      </c>
+      <c r="M11" s="7"/>
+      <c r="N11" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="O11" s="8">
+        <v>68.911980207441246</v>
+      </c>
+      <c r="P11" s="16">
+        <f>AVERAGE(O5:O11)</f>
+        <v>71.113886715942087</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="8"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G12" s="8"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="K12" s="8"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="N12" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="O12" s="8"/>
+      <c r="P12" s="16"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A13" s="17"/>
+      <c r="B13" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G13" s="8"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="K13" s="8"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="O13" s="8"/>
+      <c r="P13" s="16"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A14" s="17"/>
+      <c r="B14" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="8"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="8"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="K14" s="8"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="O14" s="8"/>
+      <c r="P14" s="16"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A15" s="17"/>
+      <c r="B15" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="8"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G15" s="8"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="K15" s="8"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="O15" s="8"/>
+      <c r="P15" s="16"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A16" s="17"/>
+      <c r="B16" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="8"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G16" s="8"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="K16" s="8"/>
+      <c r="L16" s="16"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="O16" s="8"/>
+      <c r="P16" s="16"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A17" s="17"/>
+      <c r="B17" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="8"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G17" s="8"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="K17" s="8"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="O17" s="8"/>
+      <c r="P17" s="16"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A18" s="17"/>
+      <c r="B18" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="8"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G18" s="8"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="K18" s="8"/>
+      <c r="L18" s="16"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="O18" s="8"/>
+      <c r="P18" s="16"/>
+    </row>
+    <row r="19" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" s="8"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G19" s="8"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="J19" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="K19" s="8"/>
+      <c r="L19" s="16"/>
+      <c r="M19" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="N19" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="O19" s="8"/>
+      <c r="P19" s="16"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A20" s="17"/>
+      <c r="B20" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" s="8"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G20" s="8"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="K20" s="8"/>
+      <c r="L20" s="16"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="O20" s="8"/>
+      <c r="P20" s="16"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A21" s="17"/>
+      <c r="B21" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="8"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G21" s="8"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="K21" s="8"/>
+      <c r="L21" s="16"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="O21" s="8"/>
+      <c r="P21" s="16"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A22" s="17"/>
+      <c r="B22" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="8"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G22" s="8"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="K22" s="8"/>
+      <c r="L22" s="16"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="O22" s="8"/>
+      <c r="P22" s="16"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A23" s="17"/>
+      <c r="B23" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="8"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G23" s="8"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="K23" s="8"/>
+      <c r="L23" s="16"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="O23" s="8"/>
+      <c r="P23" s="16"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A24" s="17"/>
+      <c r="B24" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="8"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G24" s="8"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="K24" s="8"/>
+      <c r="L24" s="16"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="O24" s="8"/>
+      <c r="P24" s="16"/>
+    </row>
+    <row r="25" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="18"/>
+      <c r="B25" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="20"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="G25" s="20"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="K25" s="20"/>
+      <c r="L25" s="21"/>
+      <c r="M25" s="24"/>
+      <c r="N25" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="O25" s="20"/>
+      <c r="P25" s="21"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A26" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C26" s="8"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G26" s="8"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="J26" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="K26" s="8"/>
+      <c r="L26" s="16"/>
+      <c r="M26" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N26" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="O26" s="8"/>
+      <c r="P26" s="16"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A27" s="17"/>
+      <c r="B27" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="8"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G27" s="8"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="17"/>
+      <c r="J27" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="K27" s="8"/>
+      <c r="L27" s="16"/>
+      <c r="M27" s="7"/>
+      <c r="N27" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="O27" s="8"/>
+      <c r="P27" s="16"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A28" s="17"/>
+      <c r="B28" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" s="8"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G28" s="8"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="17"/>
+      <c r="J28" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="K28" s="8"/>
+      <c r="L28" s="16"/>
+      <c r="M28" s="7"/>
+      <c r="N28" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="O28" s="8"/>
+      <c r="P28" s="16"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A29" s="17"/>
+      <c r="B29" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" s="8"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G29" s="8"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="17"/>
+      <c r="J29" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="K29" s="8"/>
+      <c r="L29" s="16"/>
+      <c r="M29" s="7"/>
+      <c r="N29" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="O29" s="8"/>
+      <c r="P29" s="16"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A30" s="17"/>
+      <c r="B30" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" s="8"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G30" s="8"/>
+      <c r="H30" s="16"/>
+      <c r="I30" s="17"/>
+      <c r="J30" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="K30" s="8"/>
+      <c r="L30" s="16"/>
+      <c r="M30" s="7"/>
+      <c r="N30" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="O30" s="8"/>
+      <c r="P30" s="16"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A31" s="17"/>
+      <c r="B31" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" s="8"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G31" s="8"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="17"/>
+      <c r="J31" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="K31" s="8"/>
+      <c r="L31" s="16"/>
+      <c r="M31" s="7"/>
+      <c r="N31" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="O31" s="8"/>
+      <c r="P31" s="16"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A32" s="17"/>
+      <c r="B32" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="8"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G32" s="8"/>
+      <c r="H32" s="16"/>
+      <c r="I32" s="17"/>
+      <c r="J32" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="K32" s="8"/>
+      <c r="L32" s="16"/>
+      <c r="M32" s="7"/>
+      <c r="N32" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="O32" s="8"/>
+      <c r="P32" s="16"/>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A33" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C33" s="8"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G33" s="8"/>
+      <c r="H33" s="16"/>
+      <c r="I33" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="J33" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="K33" s="8"/>
+      <c r="L33" s="16"/>
+      <c r="M33" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="N33" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="O33" s="8"/>
+      <c r="P33" s="16"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A34" s="17"/>
+      <c r="B34" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C34" s="8"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G34" s="8"/>
+      <c r="H34" s="16"/>
+      <c r="I34" s="17"/>
+      <c r="J34" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="K34" s="8"/>
+      <c r="L34" s="16"/>
+      <c r="M34" s="7"/>
+      <c r="N34" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="O34" s="8"/>
+      <c r="P34" s="16"/>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A35" s="17"/>
+      <c r="B35" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C35" s="8"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G35" s="8"/>
+      <c r="H35" s="16"/>
+      <c r="I35" s="17"/>
+      <c r="J35" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="K35" s="8"/>
+      <c r="L35" s="16"/>
+      <c r="M35" s="7"/>
+      <c r="N35" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="O35" s="8"/>
+      <c r="P35" s="16"/>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A36" s="17"/>
+      <c r="B36" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36" s="8"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G36" s="8"/>
+      <c r="H36" s="16"/>
+      <c r="I36" s="17"/>
+      <c r="J36" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="K36" s="8"/>
+      <c r="L36" s="16"/>
+      <c r="M36" s="7"/>
+      <c r="N36" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="O36" s="8"/>
+      <c r="P36" s="16"/>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A37" s="17"/>
+      <c r="B37" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" s="8"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G37" s="8"/>
+      <c r="H37" s="16"/>
+      <c r="I37" s="17"/>
+      <c r="J37" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="K37" s="8"/>
+      <c r="L37" s="16"/>
+      <c r="M37" s="7"/>
+      <c r="N37" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="O37" s="8"/>
+      <c r="P37" s="16"/>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A38" s="17"/>
+      <c r="B38" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" s="8"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G38" s="8"/>
+      <c r="H38" s="16"/>
+      <c r="I38" s="17"/>
+      <c r="J38" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="K38" s="8"/>
+      <c r="L38" s="16"/>
+      <c r="M38" s="7"/>
+      <c r="N38" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="O38" s="8"/>
+      <c r="P38" s="16"/>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A39" s="17"/>
+      <c r="B39" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" s="8"/>
+      <c r="D39" s="16"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G39" s="8"/>
+      <c r="H39" s="16"/>
+      <c r="I39" s="17"/>
+      <c r="J39" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="K39" s="8"/>
+      <c r="L39" s="16"/>
+      <c r="M39" s="7"/>
+      <c r="N39" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="O39" s="8"/>
+      <c r="P39" s="16"/>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A40" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C40" s="8"/>
+      <c r="D40" s="16"/>
+      <c r="E40" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G40" s="8"/>
+      <c r="H40" s="16"/>
+      <c r="I40" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="J40" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="K40" s="8"/>
+      <c r="L40" s="16"/>
+      <c r="M40" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="N40" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="O40" s="8"/>
+      <c r="P40" s="16"/>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A41" s="17"/>
+      <c r="B41" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C41" s="8"/>
+      <c r="D41" s="16"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G41" s="8"/>
+      <c r="H41" s="16"/>
+      <c r="I41" s="17"/>
+      <c r="J41" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="K41" s="8"/>
+      <c r="L41" s="16"/>
+      <c r="M41" s="7"/>
+      <c r="N41" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="O41" s="8"/>
+      <c r="P41" s="16"/>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A42" s="17"/>
+      <c r="B42" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C42" s="8"/>
+      <c r="D42" s="16"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G42" s="8"/>
+      <c r="H42" s="16"/>
+      <c r="I42" s="17"/>
+      <c r="J42" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="K42" s="8"/>
+      <c r="L42" s="16"/>
+      <c r="M42" s="7"/>
+      <c r="N42" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="O42" s="8"/>
+      <c r="P42" s="16"/>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A43" s="17"/>
+      <c r="B43" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C43" s="8"/>
+      <c r="D43" s="16"/>
+      <c r="E43" s="17"/>
+      <c r="F43" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G43" s="8"/>
+      <c r="H43" s="16"/>
+      <c r="I43" s="17"/>
+      <c r="J43" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="K43" s="8"/>
+      <c r="L43" s="16"/>
+      <c r="M43" s="7"/>
+      <c r="N43" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="O43" s="8"/>
+      <c r="P43" s="16"/>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A44" s="17"/>
+      <c r="B44" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" s="8"/>
+      <c r="D44" s="16"/>
+      <c r="E44" s="17"/>
+      <c r="F44" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G44" s="8"/>
+      <c r="H44" s="16"/>
+      <c r="I44" s="17"/>
+      <c r="J44" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="K44" s="8"/>
+      <c r="L44" s="16"/>
+      <c r="M44" s="7"/>
+      <c r="N44" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="O44" s="8"/>
+      <c r="P44" s="16"/>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A45" s="17"/>
+      <c r="B45" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C45" s="8"/>
+      <c r="D45" s="16"/>
+      <c r="E45" s="17"/>
+      <c r="F45" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G45" s="8"/>
+      <c r="H45" s="16"/>
+      <c r="I45" s="17"/>
+      <c r="J45" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="K45" s="8"/>
+      <c r="L45" s="16"/>
+      <c r="M45" s="7"/>
+      <c r="N45" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="O45" s="8"/>
+      <c r="P45" s="16"/>
+    </row>
+    <row r="46" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="18"/>
+      <c r="B46" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C46" s="20"/>
+      <c r="D46" s="21"/>
+      <c r="E46" s="18"/>
+      <c r="F46" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="G46" s="20"/>
+      <c r="H46" s="21"/>
+      <c r="I46" s="18"/>
+      <c r="J46" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="K46" s="20"/>
+      <c r="L46" s="21"/>
+      <c r="M46" s="24"/>
+      <c r="N46" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="O46" s="20"/>
+      <c r="P46" s="21"/>
+    </row>
+  </sheetData>
+  <mergeCells count="40">
+    <mergeCell ref="I26:I32"/>
+    <mergeCell ref="I33:I39"/>
+    <mergeCell ref="I40:I46"/>
+    <mergeCell ref="M26:M32"/>
+    <mergeCell ref="M33:M39"/>
+    <mergeCell ref="M40:M46"/>
+    <mergeCell ref="A26:A32"/>
+    <mergeCell ref="A33:A39"/>
+    <mergeCell ref="A40:A46"/>
+    <mergeCell ref="E26:E32"/>
+    <mergeCell ref="E33:E39"/>
+    <mergeCell ref="E40:E46"/>
+    <mergeCell ref="A12:A18"/>
+    <mergeCell ref="E12:E18"/>
+    <mergeCell ref="I12:I18"/>
+    <mergeCell ref="M12:M18"/>
+    <mergeCell ref="A19:A25"/>
+    <mergeCell ref="E19:E25"/>
+    <mergeCell ref="I19:I25"/>
+    <mergeCell ref="M19:M25"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="M5:M11"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:E11"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="I5:I11"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:A11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D630BE93-3E1D-4E0C-BE95-2B24236AAAC8}">
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="A1:C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="3"/>
+      <c r="B1" s="2"/>
       <c r="C1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="1">
+      <c r="B2" s="2"/>
+      <c r="C2" s="3">
+        <v>66.342505846359671</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="4">
+        <v>76.994893266089377</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="4">
+        <v>69.050695363570043</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="4">
+        <v>72.09827074628673</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="4">
+        <v>71.441448455436472</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="4">
+        <v>72.09827074628673</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="4">
+        <v>72.09827074628673</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="4">
+        <v>72.09827074628673</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="1"/>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="4">
+        <v>68.911980207441246</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:A10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="A1:C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2">
         <v>75.763931060533977</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="2">
+      <c r="B3" s="2"/>
+      <c r="C3">
         <v>80.80022606885295</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B4" t="s">
@@ -436,7 +2152,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="4"/>
+      <c r="A5" s="1"/>
       <c r="B5" t="s">
         <v>3</v>
       </c>
@@ -445,7 +2161,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="4"/>
+      <c r="A6" s="1"/>
       <c r="B6" t="s">
         <v>4</v>
       </c>
@@ -454,7 +2170,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="4"/>
+      <c r="A7" s="1"/>
       <c r="B7" t="s">
         <v>5</v>
       </c>
@@ -463,7 +2179,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="4"/>
+      <c r="A8" s="1"/>
       <c r="B8" t="s">
         <v>6</v>
       </c>
@@ -472,7 +2188,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="4"/>
+      <c r="A9" s="1"/>
       <c r="B9" t="s">
         <v>7</v>
       </c>
@@ -481,7 +2197,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="4"/>
+      <c r="A10" s="1"/>
       <c r="B10" t="s">
         <v>8</v>
       </c>
@@ -498,4 +2214,236 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0DC7771-D203-40DC-859A-FCBD3C1E2C77}">
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="A1:C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="8.88671875" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="4">
+        <v>81.430750554358895</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="4">
+        <v>81.436742532374851</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="4">
+        <v>80.95286868110162</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="4">
+        <v>81.228932199528813</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="4">
+        <v>81.24952637998598</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="4">
+        <v>81.387878211172534</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="4">
+        <v>81.228932199528813</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="4">
+        <v>80.660605483899815</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="1"/>
+      <c r="B10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="4">
+        <v>81.071831647909306</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:A10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8302036D-4195-4397-BF43-2E28F98E190B}">
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="8.88671875" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="4">
+        <v>83.73450174021113</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="4">
+        <v>82.29386644059781</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="4">
+        <v>81.550226789735774</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="4">
+        <v>81.31674726136616</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="4">
+        <v>82.118242083985734</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="4">
+        <v>81.704910942136166</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="4">
+        <v>81.31674726136616</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="4">
+        <v>80.230538326456113</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="1"/>
+      <c r="B10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="4">
+        <v>81.279497804190939</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:A10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>